--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,78 +440,708 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>User ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Birth</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Driver's License Number</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Passport Number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Bank Account Number</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>D.NO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Street name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Pin code</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sandee Bullock</t>
-        </is>
+      <c r="A2" t="n">
+        <v>57861</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>************</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dem55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7758956347</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>32283</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>US2320217789012</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A3903463</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>15432964088</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>kend634@gmail.com</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>c-20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Park Avenue</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>625016</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Karleen Orr</t>
-        </is>
+      <c r="A3" t="n">
+        <v>18953</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>****************</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>har83</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9150357745</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>37809</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>US1420201474654</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B5238914</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>11653894257</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>lead774@gmail.cmm</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>56.56</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>E-85</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Washing Tone street</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>624902</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Felton Gates</t>
-        </is>
+      <c r="A4" t="n">
+        <v>33291</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kja96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7865489007</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>38629</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>US8520228548916</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P8539510</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>12546729086</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>graig634@gmail.com</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>S-60</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Crosby Street</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>623917</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ermelinda Ford</t>
-        </is>
+      <c r="A5" t="n">
+        <v>96272</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>********</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jsm77</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9374674890</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>29083</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>US3420211174590</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A8239058</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>26789259789</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>king489@gmail.cfm</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>W-30</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Fifth Avenue street</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>623908</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Eric Walter</t>
-        </is>
+      <c r="A6" t="n">
+        <v>7195</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>********</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pnx31</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7689988542</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>21457</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>US2120213382901</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>U6452890</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>85372897256</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>behn854@gmail.cmm</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>70.86</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>D-9</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Broadway</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>536894</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Elizbeth Beasley</t>
-        </is>
+      <c r="A7" t="n">
+        <v>94757</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>*********</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jdb81</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9347897140</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>29410</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>US9020226739034</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N6349025</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>67387098734</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>lavi714@gmail.cfm</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>80.78</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>F-8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>St Mark's</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>456789</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Clyde Patterson</t>
-        </is>
+      <c r="A8" t="n">
+        <v>48167</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>********</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bwg34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9445678912</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>24210</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>US1120194590763</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>S7450928</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>52890156238</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>jame891@gmail.com</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>61.65</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>G-9</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Madison Avenue</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>345678</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Edgar Chan</t>
-        </is>
+      <c r="A9" t="n">
+        <v>50730</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>**********</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fsk57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9946771966</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>28549</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>US2720237320165</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>P6428904</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>62296086118</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>bass196@gmail.cfm</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>70.73999999999999</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C-22</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NYC street</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>536478</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Casie Dudley</t>
-        </is>
+      <c r="A10" t="n">
+        <v>46122</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>**********</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rdv50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9994034782</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>34783</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>US3420212890123</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C6328942</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>45396802167</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>lara478@gmail.cmm</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>D-59</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Jones Street</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>657383</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Luetta Pena</t>
-        </is>
+      <c r="A11" t="n">
+        <v>78912</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*********</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>grs10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9387361103</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>33239</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>US2720196219054</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>F7501358</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>16724390568</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>smit110@gmail.com</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>68.39</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>R-20</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Walls Street</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>643589</v>
       </c>
     </row>
   </sheetData>
